--- a/Major_Course_College_Pivot.xlsx
+++ b/Major_Course_College_Pivot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/753e9d322bd3a877/Rich Files/SSU/2018/SonomaStateICLM/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{20459658-7B74-4005-B0F1-96361C9E7BEE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30061A06-CE0A-4BFD-8356-A977F1BE550A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="86">
   <si>
     <t>StdntCollege</t>
   </si>
@@ -35,6 +35,9 @@
     <t>HeadCount</t>
   </si>
   <si>
+    <t>HeadCount1</t>
+  </si>
+  <si>
     <t>Arts and Humanities</t>
   </si>
   <si>
@@ -254,12 +257,18 @@
     <t>Row Labels</t>
   </si>
   <si>
+    <t>(blank)</t>
+  </si>
+  <si>
     <t>Grand Total</t>
   </si>
   <si>
     <t>Sum of HeadCount</t>
   </si>
   <si>
+    <t>Sum of HeadCount1</t>
+  </si>
+  <si>
     <t>Sum of Arts and Humanities</t>
   </si>
   <si>
@@ -273,15 +282,15 @@
   </si>
   <si>
     <t>Sum of Social Sciences</t>
-  </si>
-  <si>
-    <t>Sum of University-wide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -768,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -814,7 +823,20 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -828,13 +850,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Richard McGowan" refreshedDate="43437.392983564816" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Richard McGowan" refreshedDate="43437.436949421295" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="61">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:I61" sheet="Major_Course_College_Pivot"/>
+    <worksheetSource ref="A1:J1048576" sheet="Major_Course_College_Pivot"/>
   </cacheSource>
-  <cacheFields count="9">
+  <cacheFields count="10">
     <cacheField name="StdntCollege" numFmtId="0">
-      <sharedItems count="7">
+      <sharedItems containsBlank="1" count="8">
         <s v="Academic Affairs"/>
         <s v="ARTS &amp; HUMANITIES"/>
         <s v="BUSINESS &amp; ECONOMICS"/>
@@ -842,10 +864,11 @@
         <s v="SCIENCE &amp; TECHNOLOGY"/>
         <s v="SOCIAL SCIENCES"/>
         <s v="UNIVERSITY-WIDE"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Major" numFmtId="0">
-      <sharedItems count="59">
+      <sharedItems containsBlank="1" count="60">
         <s v="Liberal Studies Napa (BA)"/>
         <s v="Liberal Studies Solano (BA)"/>
         <s v="Undeclared"/>
@@ -905,28 +928,32 @@
         <s v="Sociology (BA)"/>
         <s v="Womens and Gender Studies (BA)"/>
         <s v="Special Major (BA)"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="HeadCount" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2100"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.14285714285714299" maxValue="1151.2857142857099"/>
+    </cacheField>
+    <cacheField name="HeadCount1" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.14285714285714299" maxValue="1151.2857142857099"/>
     </cacheField>
     <cacheField name="Arts and Humanities" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="186.42857142857099"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="186.42857142857099"/>
     </cacheField>
     <cacheField name="Business and Economics" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="289"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="289"/>
     </cacheField>
     <cacheField name="Education" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="116.857142857143"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="116.857142857143"/>
     </cacheField>
     <cacheField name="Science &amp; Technology" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="166.142857142857"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="166.142857142857"/>
     </cacheField>
     <cacheField name="Social Sciences" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="212.57142857142901"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="212.57142857142901"/>
     </cacheField>
     <cacheField name="University-wide" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="24.1428571428571"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="24.1428571428571"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -938,11 +965,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="60">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="61">
   <r>
     <x v="0"/>
     <x v="0"/>
-    <n v="29"/>
+    <n v="11.714285714285699"/>
+    <n v="11.714285714285699"/>
     <n v="2.28571428571429"/>
     <n v="0"/>
     <n v="0"/>
@@ -953,7 +981,8 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <n v="39"/>
+    <n v="16.285714285714299"/>
+    <n v="16.285714285714299"/>
     <n v="3.28571428571429"/>
     <n v="0"/>
     <n v="0"/>
@@ -964,7 +993,8 @@
   <r>
     <x v="0"/>
     <x v="2"/>
-    <n v="1661"/>
+    <n v="541.57142857142901"/>
+    <n v="541.57142857142901"/>
     <n v="133.57142857142901"/>
     <n v="23.428571428571399"/>
     <n v="4"/>
@@ -975,7 +1005,8 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <n v="71"/>
+    <n v="34.285714285714299"/>
+    <n v="34.285714285714299"/>
     <n v="8.4285714285714306"/>
     <n v="0.42857142857142899"/>
     <n v="1"/>
@@ -986,7 +1017,8 @@
   <r>
     <x v="1"/>
     <x v="4"/>
-    <n v="48"/>
+    <n v="20.285714285714299"/>
+    <n v="20.285714285714299"/>
     <n v="7.8571428571428603"/>
     <n v="0.14285714285714299"/>
     <n v="0.14285714285714299"/>
@@ -997,7 +1029,8 @@
   <r>
     <x v="1"/>
     <x v="5"/>
-    <n v="227"/>
+    <n v="113.571428571429"/>
+    <n v="113.571428571429"/>
     <n v="41.428571428571402"/>
     <n v="1.8571428571428601"/>
     <n v="0.85714285714285698"/>
@@ -1008,7 +1041,8 @@
   <r>
     <x v="1"/>
     <x v="6"/>
-    <n v="51"/>
+    <n v="30.428571428571399"/>
+    <n v="30.428571428571399"/>
     <n v="12.1428571428571"/>
     <n v="0"/>
     <n v="0.28571428571428598"/>
@@ -1019,7 +1053,8 @@
   <r>
     <x v="1"/>
     <x v="7"/>
-    <n v="72"/>
+    <n v="38.142857142857103"/>
+    <n v="38.142857142857103"/>
     <n v="10.4285714285714"/>
     <n v="0.57142857142857095"/>
     <n v="1.1428571428571399"/>
@@ -1030,7 +1065,8 @@
   <r>
     <x v="1"/>
     <x v="8"/>
-    <n v="713"/>
+    <n v="377.57142857142901"/>
+    <n v="377.57142857142901"/>
     <n v="107.142857142857"/>
     <n v="6"/>
     <n v="4.8571428571428603"/>
@@ -1041,7 +1077,8 @@
   <r>
     <x v="1"/>
     <x v="9"/>
-    <n v="134"/>
+    <n v="50.714285714285701"/>
+    <n v="50.714285714285701"/>
     <n v="0.57142857142857095"/>
     <n v="0"/>
     <n v="0.28571428571428598"/>
@@ -1052,7 +1089,8 @@
   <r>
     <x v="1"/>
     <x v="10"/>
-    <n v="561"/>
+    <n v="260.28571428571399"/>
+    <n v="260.28571428571399"/>
     <n v="75.714285714285694"/>
     <n v="3.5714285714285698"/>
     <n v="4.5714285714285703"/>
@@ -1063,7 +1101,8 @@
   <r>
     <x v="1"/>
     <x v="11"/>
-    <n v="36"/>
+    <n v="22.714285714285701"/>
+    <n v="22.714285714285701"/>
     <n v="5.71428571428571"/>
     <n v="0.28571428571428598"/>
     <n v="0.71428571428571397"/>
@@ -1074,7 +1113,8 @@
   <r>
     <x v="1"/>
     <x v="12"/>
-    <n v="1"/>
+    <n v="0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
     <n v="0.14285714285714299"/>
     <n v="0.14285714285714299"/>
     <n v="0"/>
@@ -1085,7 +1125,8 @@
   <r>
     <x v="1"/>
     <x v="13"/>
-    <n v="711"/>
+    <n v="346.142857142857"/>
+    <n v="346.142857142857"/>
     <n v="186.42857142857099"/>
     <n v="1.28571428571429"/>
     <n v="26.285714285714299"/>
@@ -1096,7 +1137,8 @@
   <r>
     <x v="1"/>
     <x v="14"/>
-    <n v="1"/>
+    <n v="0.14285714285714299"/>
+    <n v="0.14285714285714299"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -1107,7 +1149,8 @@
   <r>
     <x v="1"/>
     <x v="15"/>
-    <n v="58"/>
+    <n v="27.571428571428601"/>
+    <n v="27.571428571428601"/>
     <n v="11.5714285714286"/>
     <n v="0.28571428571428598"/>
     <n v="0.42857142857142899"/>
@@ -1118,7 +1161,8 @@
   <r>
     <x v="1"/>
     <x v="16"/>
-    <n v="170"/>
+    <n v="81.285714285714306"/>
+    <n v="81.285714285714306"/>
     <n v="36.714285714285701"/>
     <n v="0.71428571428571397"/>
     <n v="1.8571428571428601"/>
@@ -1129,7 +1173,8 @@
   <r>
     <x v="1"/>
     <x v="17"/>
-    <n v="158"/>
+    <n v="82"/>
+    <n v="82"/>
     <n v="22.428571428571399"/>
     <n v="1.8571428571428601"/>
     <n v="0.28571428571428598"/>
@@ -1140,7 +1185,8 @@
   <r>
     <x v="1"/>
     <x v="18"/>
-    <n v="239"/>
+    <n v="141.142857142857"/>
+    <n v="141.142857142857"/>
     <n v="34.142857142857103"/>
     <n v="2.4285714285714302"/>
     <n v="4.28571428571429"/>
@@ -1151,7 +1197,8 @@
   <r>
     <x v="1"/>
     <x v="19"/>
-    <n v="161"/>
+    <n v="80.571428571428598"/>
+    <n v="80.571428571428598"/>
     <n v="38.714285714285701"/>
     <n v="1.71428571428571"/>
     <n v="0.28571428571428598"/>
@@ -1162,7 +1209,8 @@
   <r>
     <x v="2"/>
     <x v="20"/>
-    <n v="2100"/>
+    <n v="1151.2857142857099"/>
+    <n v="1151.2857142857099"/>
     <n v="110.571428571429"/>
     <n v="289"/>
     <n v="8.71428571428571"/>
@@ -1173,7 +1221,8 @@
   <r>
     <x v="2"/>
     <x v="21"/>
-    <n v="3"/>
+    <n v="0.42857142857142899"/>
+    <n v="0.42857142857142899"/>
     <n v="0"/>
     <n v="0.14285714285714299"/>
     <n v="0"/>
@@ -1184,7 +1233,8 @@
   <r>
     <x v="2"/>
     <x v="22"/>
-    <n v="347"/>
+    <n v="166.71428571428601"/>
+    <n v="166.71428571428601"/>
     <n v="22"/>
     <n v="38"/>
     <n v="0.71428571428571397"/>
@@ -1195,7 +1245,8 @@
   <r>
     <x v="2"/>
     <x v="12"/>
-    <n v="1"/>
+    <n v="0.57142857142857095"/>
+    <n v="0.57142857142857095"/>
     <n v="0.14285714285714299"/>
     <n v="0.14285714285714299"/>
     <n v="0"/>
@@ -1206,7 +1257,8 @@
   <r>
     <x v="2"/>
     <x v="23"/>
-    <n v="874"/>
+    <n v="326.71428571428601"/>
+    <n v="326.71428571428601"/>
     <n v="62"/>
     <n v="64.714285714285694"/>
     <n v="1.28571428571429"/>
@@ -1217,7 +1269,8 @@
   <r>
     <x v="3"/>
     <x v="24"/>
-    <n v="819"/>
+    <n v="430.71428571428601"/>
+    <n v="430.71428571428601"/>
     <n v="64.714285714285694"/>
     <n v="3.5714285714285698"/>
     <n v="116.857142857143"/>
@@ -1228,7 +1281,8 @@
   <r>
     <x v="4"/>
     <x v="25"/>
-    <n v="27"/>
+    <n v="14.285714285714301"/>
+    <n v="14.285714285714301"/>
     <n v="1.4285714285714299"/>
     <n v="1"/>
     <n v="0"/>
@@ -1239,7 +1293,8 @@
   <r>
     <x v="4"/>
     <x v="26"/>
-    <n v="207"/>
+    <n v="94.714285714285694"/>
+    <n v="94.714285714285694"/>
     <n v="11"/>
     <n v="0.71428571428571397"/>
     <n v="0.28571428571428598"/>
@@ -1250,7 +1305,8 @@
   <r>
     <x v="4"/>
     <x v="27"/>
-    <n v="339"/>
+    <n v="166.42857142857099"/>
+    <n v="166.42857142857099"/>
     <n v="22.1428571428571"/>
     <n v="1.4285714285714299"/>
     <n v="1"/>
@@ -1261,7 +1317,8 @@
   <r>
     <x v="4"/>
     <x v="28"/>
-    <n v="465"/>
+    <n v="222.42857142857099"/>
+    <n v="222.42857142857099"/>
     <n v="26.428571428571399"/>
     <n v="1.71428571428571"/>
     <n v="0.85714285714285698"/>
@@ -1272,7 +1329,8 @@
   <r>
     <x v="4"/>
     <x v="29"/>
-    <n v="74"/>
+    <n v="37.142857142857103"/>
+    <n v="37.142857142857103"/>
     <n v="4.1428571428571397"/>
     <n v="0.42857142857142899"/>
     <n v="0.14285714285714299"/>
@@ -1283,7 +1341,8 @@
   <r>
     <x v="4"/>
     <x v="30"/>
-    <n v="96"/>
+    <n v="40.571428571428598"/>
+    <n v="40.571428571428598"/>
     <n v="4.1428571428571397"/>
     <n v="0.71428571428571397"/>
     <n v="0.28571428571428598"/>
@@ -1294,7 +1353,8 @@
   <r>
     <x v="4"/>
     <x v="31"/>
-    <n v="665"/>
+    <n v="323.142857142857"/>
+    <n v="323.142857142857"/>
     <n v="37.714285714285701"/>
     <n v="7.8571428571428603"/>
     <n v="1"/>
@@ -1305,7 +1365,8 @@
   <r>
     <x v="4"/>
     <x v="32"/>
-    <n v="46"/>
+    <n v="22.1428571428571"/>
+    <n v="22.1428571428571"/>
     <n v="3.1428571428571401"/>
     <n v="0"/>
     <n v="0.28571428571428598"/>
@@ -1316,7 +1377,8 @@
   <r>
     <x v="4"/>
     <x v="33"/>
-    <n v="255"/>
+    <n v="117.857142857143"/>
+    <n v="117.857142857143"/>
     <n v="13.1428571428571"/>
     <n v="2"/>
     <n v="0.42857142857142899"/>
@@ -1327,7 +1389,8 @@
   <r>
     <x v="4"/>
     <x v="34"/>
-    <n v="89"/>
+    <n v="46"/>
+    <n v="46"/>
     <n v="5.28571428571429"/>
     <n v="0.85714285714285698"/>
     <n v="0"/>
@@ -1338,7 +1401,8 @@
   <r>
     <x v="4"/>
     <x v="35"/>
-    <n v="716"/>
+    <n v="404.28571428571399"/>
+    <n v="404.28571428571399"/>
     <n v="54"/>
     <n v="4.5714285714285703"/>
     <n v="1.8571428571428601"/>
@@ -1349,7 +1413,8 @@
   <r>
     <x v="4"/>
     <x v="36"/>
-    <n v="155"/>
+    <n v="86.857142857142904"/>
+    <n v="86.857142857142904"/>
     <n v="8.71428571428571"/>
     <n v="1.28571428571429"/>
     <n v="2.1428571428571401"/>
@@ -1360,7 +1425,8 @@
   <r>
     <x v="4"/>
     <x v="37"/>
-    <n v="88"/>
+    <n v="42.285714285714299"/>
+    <n v="42.285714285714299"/>
     <n v="4.5714285714285703"/>
     <n v="0.57142857142857095"/>
     <n v="0.28571428571428598"/>
@@ -1371,7 +1437,8 @@
   <r>
     <x v="4"/>
     <x v="38"/>
-    <n v="96"/>
+    <n v="52.857142857142897"/>
+    <n v="52.857142857142897"/>
     <n v="2.4285714285714302"/>
     <n v="0.14285714285714299"/>
     <n v="0.14285714285714299"/>
@@ -1382,7 +1449,8 @@
   <r>
     <x v="4"/>
     <x v="39"/>
-    <n v="132"/>
+    <n v="33"/>
+    <n v="33"/>
     <n v="1.1428571428571399"/>
     <n v="0"/>
     <n v="0"/>
@@ -1393,7 +1461,8 @@
   <r>
     <x v="4"/>
     <x v="40"/>
-    <n v="18"/>
+    <n v="11"/>
+    <n v="11"/>
     <n v="1.28571428571429"/>
     <n v="0.28571428571428598"/>
     <n v="0.14285714285714299"/>
@@ -1404,7 +1473,8 @@
   <r>
     <x v="4"/>
     <x v="41"/>
-    <n v="80"/>
+    <n v="41.285714285714299"/>
+    <n v="41.285714285714299"/>
     <n v="4.1428571428571397"/>
     <n v="0.42857142857142899"/>
     <n v="0.14285714285714299"/>
@@ -1415,7 +1485,8 @@
   <r>
     <x v="4"/>
     <x v="42"/>
-    <n v="189"/>
+    <n v="83.285714285714306"/>
+    <n v="83.285714285714306"/>
     <n v="16.714285714285701"/>
     <n v="0.71428571428571397"/>
     <n v="0.57142857142857095"/>
@@ -1426,7 +1497,8 @@
   <r>
     <x v="4"/>
     <x v="43"/>
-    <n v="57"/>
+    <n v="24.571428571428601"/>
+    <n v="24.571428571428601"/>
     <n v="2.28571428571429"/>
     <n v="1.28571428571429"/>
     <n v="0"/>
@@ -1437,7 +1509,8 @@
   <r>
     <x v="5"/>
     <x v="44"/>
-    <n v="215"/>
+    <n v="94"/>
+    <n v="94"/>
     <n v="11.5714285714286"/>
     <n v="0.85714285714285698"/>
     <n v="0.85714285714285698"/>
@@ -1448,7 +1521,8 @@
   <r>
     <x v="5"/>
     <x v="45"/>
-    <n v="668"/>
+    <n v="322.28571428571399"/>
+    <n v="322.28571428571399"/>
     <n v="45.857142857142897"/>
     <n v="4"/>
     <n v="2.5714285714285698"/>
@@ -1459,7 +1533,8 @@
   <r>
     <x v="5"/>
     <x v="46"/>
-    <n v="105"/>
+    <n v="58"/>
+    <n v="58"/>
     <n v="6.28571428571429"/>
     <n v="1.28571428571429"/>
     <n v="0.14285714285714299"/>
@@ -1470,7 +1545,8 @@
   <r>
     <x v="5"/>
     <x v="47"/>
-    <n v="393"/>
+    <n v="199.71428571428601"/>
+    <n v="199.71428571428601"/>
     <n v="22.571428571428601"/>
     <n v="5.28571428571429"/>
     <n v="1.1428571428571399"/>
@@ -1481,7 +1557,8 @@
   <r>
     <x v="5"/>
     <x v="48"/>
-    <n v="116"/>
+    <n v="60.142857142857103"/>
+    <n v="60.142857142857103"/>
     <n v="5.8571428571428603"/>
     <n v="0.57142857142857095"/>
     <n v="0.14285714285714299"/>
@@ -1492,7 +1569,8 @@
   <r>
     <x v="5"/>
     <x v="49"/>
-    <n v="20"/>
+    <n v="12.4285714285714"/>
+    <n v="12.4285714285714"/>
     <n v="2.4285714285714302"/>
     <n v="0.28571428571428598"/>
     <n v="0"/>
@@ -1503,7 +1581,8 @@
   <r>
     <x v="5"/>
     <x v="50"/>
-    <n v="79"/>
+    <n v="38.571428571428598"/>
+    <n v="38.571428571428598"/>
     <n v="7.1428571428571397"/>
     <n v="1.71428571428571"/>
     <n v="0.14285714285714299"/>
@@ -1514,7 +1593,8 @@
   <r>
     <x v="5"/>
     <x v="51"/>
-    <n v="420"/>
+    <n v="195.71428571428601"/>
+    <n v="195.71428571428601"/>
     <n v="27.714285714285701"/>
     <n v="2.71428571428571"/>
     <n v="5.1428571428571397"/>
@@ -1525,7 +1605,8 @@
   <r>
     <x v="5"/>
     <x v="52"/>
-    <n v="213"/>
+    <n v="119.428571428571"/>
+    <n v="119.428571428571"/>
     <n v="12.285714285714301"/>
     <n v="0.85714285714285698"/>
     <n v="11.8571428571429"/>
@@ -1536,7 +1617,8 @@
   <r>
     <x v="5"/>
     <x v="53"/>
-    <n v="77"/>
+    <n v="28.428571428571399"/>
+    <n v="28.428571428571399"/>
     <n v="6"/>
     <n v="0"/>
     <n v="0.85714285714285698"/>
@@ -1547,7 +1629,8 @@
   <r>
     <x v="5"/>
     <x v="54"/>
-    <n v="354"/>
+    <n v="172.142857142857"/>
+    <n v="172.142857142857"/>
     <n v="27.571428571428601"/>
     <n v="4.1428571428571397"/>
     <n v="1.1428571428571399"/>
@@ -1558,7 +1641,8 @@
   <r>
     <x v="5"/>
     <x v="55"/>
-    <n v="1359"/>
+    <n v="667.28571428571399"/>
+    <n v="667.28571428571399"/>
     <n v="86.428571428571402"/>
     <n v="7.71428571428571"/>
     <n v="6.5714285714285703"/>
@@ -1569,7 +1653,8 @@
   <r>
     <x v="5"/>
     <x v="56"/>
-    <n v="1022"/>
+    <n v="500.857142857143"/>
+    <n v="500.857142857143"/>
     <n v="53"/>
     <n v="4.71428571428571"/>
     <n v="4.8571428571428603"/>
@@ -1580,7 +1665,8 @@
   <r>
     <x v="5"/>
     <x v="57"/>
-    <n v="154"/>
+    <n v="78.714285714285694"/>
+    <n v="78.714285714285694"/>
     <n v="11.285714285714301"/>
     <n v="0.71428571428571397"/>
     <n v="0.85714285714285698"/>
@@ -1591,7 +1677,8 @@
   <r>
     <x v="6"/>
     <x v="58"/>
-    <n v="20"/>
+    <n v="13.8571428571429"/>
+    <n v="13.8571428571429"/>
     <n v="3.1428571428571401"/>
     <n v="0.57142857142857095"/>
     <n v="0"/>
@@ -1599,15 +1686,27 @@
     <n v="2.4285714285714302"/>
     <n v="2"/>
   </r>
+  <r>
+    <x v="7"/>
+    <x v="59"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:H71" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
+  <location ref="A3:H72" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
+      <items count="9">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1615,11 +1714,12 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item sd="0" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="60">
+      <items count="61">
         <item x="3"/>
         <item x="44"/>
         <item x="25"/>
@@ -1679,6 +1779,7 @@
         <item x="19"/>
         <item x="2"/>
         <item x="57"/>
+        <item x="59"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1689,12 +1790,13 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="68">
+  <rowItems count="69">
     <i>
       <x/>
     </i>
@@ -1895,6 +1997,9 @@
     </i>
     <i r="1">
       <x v="54"/>
+    </i>
+    <i>
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -1928,13 +2033,18 @@
   </colItems>
   <dataFields count="7">
     <dataField name="Sum of HeadCount" fld="2" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Arts and Humanities" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Business and Economics" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Education" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Science &amp; Technology" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Social Sciences" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of University-wide" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of HeadCount1" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Arts and Humanities" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Business and Economics" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Education" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Science &amp; Technology" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Social Sciences" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2244,429 +2354,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H71"/>
+  <dimension ref="A3:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4">
-        <v>1729</v>
+        <v>569.57142857142901</v>
       </c>
       <c r="C4" s="4">
+        <v>569.57142857142901</v>
+      </c>
+      <c r="D4" s="4">
         <v>139.14285714285759</v>
       </c>
-      <c r="D4" s="4">
+      <c r="E4" s="4">
         <v>23.428571428571399</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>4</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>150.28571428571414</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>95.857142857142833</v>
-      </c>
-      <c r="H4" s="4">
-        <v>24.1428571428571</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
-        <v>29</v>
+        <v>11.714285714285699</v>
       </c>
       <c r="C5" s="4">
+        <v>11.714285714285699</v>
+      </c>
+      <c r="D5" s="4">
         <v>2.28571428571429</v>
       </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
       <c r="E5" s="4">
         <v>0</v>
       </c>
       <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>0.85714285714285698</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>3.1428571428571401</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
-        <v>39</v>
+        <v>16.285714285714299</v>
       </c>
       <c r="C6" s="4">
+        <v>16.285714285714299</v>
+      </c>
+      <c r="D6" s="4">
         <v>3.28571428571429</v>
       </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>1.28571428571429</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>4.28571428571429</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4">
-        <v>1661</v>
+        <v>541.57142857142901</v>
       </c>
       <c r="C7" s="4">
+        <v>541.57142857142901</v>
+      </c>
+      <c r="D7" s="4">
         <v>133.57142857142901</v>
       </c>
-      <c r="D7" s="4">
+      <c r="E7" s="4">
         <v>23.428571428571399</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>148.142857142857</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>88.428571428571402</v>
-      </c>
-      <c r="H7" s="4">
-        <v>24.1428571428571</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4">
-        <v>3412</v>
+        <v>1707.4285714285718</v>
       </c>
       <c r="C8" s="4">
+        <v>1707.4285714285718</v>
+      </c>
+      <c r="D8" s="4">
         <v>599.57142857142787</v>
       </c>
-      <c r="D8" s="4">
+      <c r="E8" s="4">
         <v>21.285714285714292</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>47.285714285714306</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>192.85714285714272</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>183.57142857142864</v>
-      </c>
-      <c r="H8" s="4">
-        <v>36.857142857142868</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
-        <v>71</v>
+        <v>34.285714285714299</v>
       </c>
       <c r="C9" s="4">
+        <v>34.285714285714299</v>
+      </c>
+      <c r="D9" s="4">
         <v>8.4285714285714306</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>0.42857142857142899</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>3.8571428571428599</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>6.4285714285714297</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.85714285714285698</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
-        <v>48</v>
+        <v>20.285714285714299</v>
       </c>
       <c r="C10" s="4">
+        <v>20.285714285714299</v>
+      </c>
+      <c r="D10" s="4">
         <v>7.8571428571428603</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.14285714285714299</v>
       </c>
       <c r="E10" s="4">
         <v>0.14285714285714299</v>
       </c>
       <c r="F10" s="4">
-        <v>2</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
       <c r="H10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4">
-        <v>227</v>
+        <v>113.571428571429</v>
       </c>
       <c r="C11" s="4">
+        <v>113.571428571429</v>
+      </c>
+      <c r="D11" s="4">
         <v>41.428571428571402</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="4">
         <v>1.8571428571428601</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>0.85714285714285698</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>13.1428571428571</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>13.8571428571429</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2.5714285714285698</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4">
-        <v>51</v>
+        <v>30.428571428571399</v>
       </c>
       <c r="C12" s="4">
+        <v>30.428571428571399</v>
+      </c>
+      <c r="D12" s="4">
         <v>12.1428571428571</v>
       </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
       <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.28571428571428598</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>1.28571428571429</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>1.8571428571428601</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4">
-        <v>72</v>
+        <v>38.142857142857103</v>
       </c>
       <c r="C13" s="4">
+        <v>38.142857142857103</v>
+      </c>
+      <c r="D13" s="4">
         <v>10.4285714285714</v>
       </c>
-      <c r="D13" s="4">
+      <c r="E13" s="4">
         <v>0.57142857142857095</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <v>1.1428571428571399</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.4285714285714297</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>6.1428571428571397</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.71428571428571397</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4">
-        <v>713</v>
+        <v>377.57142857142901</v>
       </c>
       <c r="C14" s="4">
+        <v>377.57142857142901</v>
+      </c>
+      <c r="D14" s="4">
         <v>107.142857142857</v>
       </c>
-      <c r="D14" s="4">
+      <c r="E14" s="4">
         <v>6</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <v>4.8571428571428603</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>43.285714285714299</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>50.428571428571402</v>
-      </c>
-      <c r="H14" s="4">
-        <v>9.8571428571428594</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4">
-        <v>134</v>
+        <v>50.714285714285701</v>
       </c>
       <c r="C15" s="4">
+        <v>50.714285714285701</v>
+      </c>
+      <c r="D15" s="4">
         <v>0.57142857142857095</v>
       </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
       <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.28571428571428598</v>
       </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
       <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <v>0.42857142857142899</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4">
-        <v>561</v>
+        <v>260.28571428571399</v>
       </c>
       <c r="C16" s="4">
+        <v>260.28571428571399</v>
+      </c>
+      <c r="D16" s="4">
         <v>75.714285714285694</v>
       </c>
-      <c r="D16" s="4">
+      <c r="E16" s="4">
         <v>3.5714285714285698</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <v>4.5714285714285703</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>24.285714285714299</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>29</v>
-      </c>
-      <c r="H16" s="4">
-        <v>6.4285714285714297</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="4">
-        <v>36</v>
+        <v>22.714285714285701</v>
       </c>
       <c r="C17" s="4">
+        <v>22.714285714285701</v>
+      </c>
+      <c r="D17" s="4">
         <v>5.71428571428571</v>
       </c>
-      <c r="D17" s="4">
+      <c r="E17" s="4">
         <v>0.28571428571428598</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>0.71428571428571397</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>3</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>2.71428571428571</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1.8571428571428601</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4">
-        <v>1</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="C18" s="4">
-        <v>0.14285714285714299</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="D18" s="4">
         <v>0.14285714285714299</v>
       </c>
       <c r="E18" s="4">
-        <v>0</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -2680,39 +2790,39 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4">
-        <v>711</v>
+        <v>346.142857142857</v>
       </c>
       <c r="C19" s="4">
+        <v>346.142857142857</v>
+      </c>
+      <c r="D19" s="4">
         <v>186.42857142857099</v>
       </c>
-      <c r="D19" s="4">
+      <c r="E19" s="4">
         <v>1.28571428571429</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <v>26.285714285714299</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>48.714285714285701</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>17</v>
-      </c>
-      <c r="H19" s="4">
-        <v>4.28571428571429</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4">
-        <v>1</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -2732,201 +2842,201 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4">
-        <v>58</v>
+        <v>27.571428571428601</v>
       </c>
       <c r="C21" s="4">
+        <v>27.571428571428601</v>
+      </c>
+      <c r="D21" s="4">
         <v>11.5714285714286</v>
       </c>
-      <c r="D21" s="4">
+      <c r="E21" s="4">
         <v>0.28571428571428598</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>0.42857142857142899</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2.4285714285714302</v>
       </c>
       <c r="G21" s="4">
         <v>2.4285714285714302</v>
       </c>
       <c r="H21" s="4">
-        <v>0.28571428571428598</v>
+        <v>2.4285714285714302</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4">
-        <v>170</v>
+        <v>81.285714285714306</v>
       </c>
       <c r="C22" s="4">
+        <v>81.285714285714306</v>
+      </c>
+      <c r="D22" s="4">
         <v>36.714285714285701</v>
       </c>
-      <c r="D22" s="4">
+      <c r="E22" s="4">
         <v>0.71428571428571397</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>1.8571428571428601</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>7.28571428571429</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>5.71428571428571</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0.57142857142857095</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="C23" s="4">
+        <v>82</v>
+      </c>
+      <c r="D23" s="4">
         <v>22.428571428571399</v>
       </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>1.8571428571428601</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>0.28571428571428598</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>10.4285714285714</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>14</v>
-      </c>
-      <c r="H23" s="4">
-        <v>1.4285714285714299</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4">
-        <v>239</v>
+        <v>141.142857142857</v>
       </c>
       <c r="C24" s="4">
+        <v>141.142857142857</v>
+      </c>
+      <c r="D24" s="4">
         <v>34.142857142857103</v>
       </c>
-      <c r="D24" s="4">
+      <c r="E24" s="4">
         <v>2.4285714285714302</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <v>4.28571428571429</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>18.1428571428571</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>21.8571428571429</v>
-      </c>
-      <c r="H24" s="4">
-        <v>5.71428571428571</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="4">
-        <v>161</v>
+        <v>80.571428571428598</v>
       </c>
       <c r="C25" s="4">
+        <v>80.571428571428598</v>
+      </c>
+      <c r="D25" s="4">
         <v>38.714285714285701</v>
       </c>
-      <c r="D25" s="4">
+      <c r="E25" s="4">
         <v>1.71428571428571</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>0.28571428571428598</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>9.5714285714285694</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>9.71428571428571</v>
-      </c>
-      <c r="H25" s="4">
-        <v>1.28571428571429</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="4">
-        <v>3325</v>
+        <v>1645.7142857142819</v>
       </c>
       <c r="C26" s="4">
+        <v>1645.7142857142819</v>
+      </c>
+      <c r="D26" s="4">
         <v>194.71428571428615</v>
       </c>
-      <c r="D26" s="4">
+      <c r="E26" s="4">
         <v>392</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>10.714285714285714</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>178.71428571428572</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>147.85714285714292</v>
-      </c>
-      <c r="H26" s="4">
-        <v>29.428571428571431</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="4">
-        <v>2100</v>
+        <v>1151.2857142857099</v>
       </c>
       <c r="C27" s="4">
+        <v>1151.2857142857099</v>
+      </c>
+      <c r="D27" s="4">
         <v>110.571428571429</v>
       </c>
-      <c r="D27" s="4">
+      <c r="E27" s="4">
         <v>289</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>8.71428571428571</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>86</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>94.857142857142904</v>
-      </c>
-      <c r="H27" s="4">
-        <v>13.8571428571429</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="4">
-        <v>3</v>
+        <v>0.42857142857142899</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>0.42857142857142899</v>
       </c>
       <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
         <v>0.14285714285714299</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -2940,45 +3050,45 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="4">
-        <v>347</v>
+        <v>166.71428571428601</v>
       </c>
       <c r="C29" s="4">
+        <v>166.71428571428601</v>
+      </c>
+      <c r="D29" s="4">
         <v>22</v>
       </c>
-      <c r="D29" s="4">
+      <c r="E29" s="4">
         <v>38</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <v>0.71428571428571397</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>21.428571428571399</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>17.8571428571429</v>
-      </c>
-      <c r="H29" s="4">
-        <v>3.4285714285714302</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" s="4">
-        <v>1</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="C30" s="4">
-        <v>0.14285714285714299</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="D30" s="4">
         <v>0.14285714285714299</v>
       </c>
       <c r="E30" s="4">
-        <v>0</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -2992,1068 +3102,1080 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="4">
-        <v>874</v>
+        <v>326.71428571428601</v>
       </c>
       <c r="C31" s="4">
+        <v>326.71428571428601</v>
+      </c>
+      <c r="D31" s="4">
         <v>62</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="4">
         <v>64.714285714285694</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <v>1.28571428571429</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>71.285714285714306</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>35.142857142857103</v>
-      </c>
-      <c r="H31" s="4">
-        <v>12.1428571428571</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4">
-        <v>819</v>
+        <v>430.71428571428601</v>
       </c>
       <c r="C32" s="4">
+        <v>430.71428571428601</v>
+      </c>
+      <c r="D32" s="4">
         <v>64.714285714285694</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="4">
         <v>3.5714285714285698</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>116.857142857143</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>51.428571428571402</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>59.714285714285701</v>
-      </c>
-      <c r="H32" s="4">
-        <v>9.71428571428571</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" s="4">
-        <v>819</v>
+        <v>430.71428571428601</v>
       </c>
       <c r="C33" s="4">
+        <v>430.71428571428601</v>
+      </c>
+      <c r="D33" s="4">
         <v>64.714285714285694</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" s="4">
         <v>3.5714285714285698</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <v>116.857142857143</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>51.428571428571402</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>59.714285714285701</v>
-      </c>
-      <c r="H33" s="4">
-        <v>9.71428571428571</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" s="4">
-        <v>3794</v>
+        <v>1864.142857142856</v>
       </c>
       <c r="C34" s="4">
+        <v>1864.142857142856</v>
+      </c>
+      <c r="D34" s="4">
         <v>223.85714285714269</v>
       </c>
-      <c r="D34" s="4">
+      <c r="E34" s="4">
         <v>26.000000000000007</v>
       </c>
-      <c r="E34" s="4">
+      <c r="F34" s="4">
         <v>9.571428571428573</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>797.42857142857156</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>188.99999999999991</v>
-      </c>
-      <c r="H34" s="4">
-        <v>34.285714285714285</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" s="4">
-        <v>27</v>
+        <v>14.285714285714301</v>
       </c>
       <c r="C35" s="4">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="D35" s="4">
         <v>1.4285714285714299</v>
       </c>
-      <c r="D35" s="4">
+      <c r="E35" s="4">
         <v>1</v>
       </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
       <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4">
         <v>4.8571428571428603</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>2.1428571428571401</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4">
-        <v>207</v>
+        <v>94.714285714285694</v>
       </c>
       <c r="C36" s="4">
+        <v>94.714285714285694</v>
+      </c>
+      <c r="D36" s="4">
         <v>11</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="4">
         <v>0.71428571428571397</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="4">
         <v>0.28571428571428598</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>50.142857142857103</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>8.5714285714285694</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4">
-        <v>339</v>
+        <v>166.42857142857099</v>
       </c>
       <c r="C37" s="4">
+        <v>166.42857142857099</v>
+      </c>
+      <c r="D37" s="4">
         <v>22.1428571428571</v>
       </c>
-      <c r="D37" s="4">
+      <c r="E37" s="4">
         <v>1.4285714285714299</v>
       </c>
-      <c r="E37" s="4">
+      <c r="F37" s="4">
         <v>1</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>73.571428571428598</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>17.428571428571399</v>
-      </c>
-      <c r="H37" s="4">
-        <v>3.1428571428571401</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4">
-        <v>465</v>
+        <v>222.42857142857099</v>
       </c>
       <c r="C38" s="4">
+        <v>222.42857142857099</v>
+      </c>
+      <c r="D38" s="4">
         <v>26.428571428571399</v>
       </c>
-      <c r="D38" s="4">
+      <c r="E38" s="4">
         <v>1.71428571428571</v>
       </c>
-      <c r="E38" s="4">
+      <c r="F38" s="4">
         <v>0.85714285714285698</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>105.571428571429</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>21.1428571428571</v>
-      </c>
-      <c r="H38" s="4">
-        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4">
-        <v>74</v>
+        <v>37.142857142857103</v>
       </c>
       <c r="C39" s="4">
+        <v>37.142857142857103</v>
+      </c>
+      <c r="D39" s="4">
         <v>4.1428571428571397</v>
       </c>
-      <c r="D39" s="4">
+      <c r="E39" s="4">
         <v>0.42857142857142899</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>0.14285714285714299</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>18</v>
       </c>
-      <c r="G39" s="4">
+      <c r="H39" s="4">
         <v>4</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0.42857142857142899</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="4">
-        <v>96</v>
+        <v>40.571428571428598</v>
       </c>
       <c r="C40" s="4">
+        <v>40.571428571428598</v>
+      </c>
+      <c r="D40" s="4">
         <v>4.1428571428571397</v>
       </c>
-      <c r="D40" s="4">
+      <c r="E40" s="4">
         <v>0.71428571428571397</v>
       </c>
-      <c r="E40" s="4">
+      <c r="F40" s="4">
         <v>0.28571428571428598</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>21</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>3.71428571428571</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0.14285714285714299</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4">
-        <v>665</v>
+        <v>323.142857142857</v>
       </c>
       <c r="C41" s="4">
+        <v>323.142857142857</v>
+      </c>
+      <c r="D41" s="4">
         <v>37.714285714285701</v>
       </c>
-      <c r="D41" s="4">
+      <c r="E41" s="4">
         <v>7.8571428571428603</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>1</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>121.142857142857</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>31.285714285714299</v>
-      </c>
-      <c r="H41" s="4">
-        <v>6.4285714285714297</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="4">
-        <v>46</v>
+        <v>22.1428571428571</v>
       </c>
       <c r="C42" s="4">
+        <v>22.1428571428571</v>
+      </c>
+      <c r="D42" s="4">
         <v>3.1428571428571401</v>
       </c>
-      <c r="D42" s="4">
-        <v>0</v>
-      </c>
       <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
         <v>0.28571428571428598</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>8.28571428571429</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <v>3.4285714285714302</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0.28571428571428598</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="4">
-        <v>255</v>
+        <v>117.857142857143</v>
       </c>
       <c r="C43" s="4">
+        <v>117.857142857143</v>
+      </c>
+      <c r="D43" s="4">
         <v>13.1428571428571</v>
       </c>
-      <c r="D43" s="4">
+      <c r="E43" s="4">
         <v>2</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>0.42857142857142899</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>49</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>8.28571428571429</v>
-      </c>
-      <c r="H43" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="4">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C44" s="4">
+        <v>46</v>
+      </c>
+      <c r="D44" s="4">
         <v>5.28571428571429</v>
       </c>
-      <c r="D44" s="4">
+      <c r="E44" s="4">
         <v>0.85714285714285698</v>
       </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
       <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
         <v>21</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>3.71428571428571</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0.42857142857142899</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" s="4">
-        <v>716</v>
+        <v>404.28571428571399</v>
       </c>
       <c r="C45" s="4">
+        <v>404.28571428571399</v>
+      </c>
+      <c r="D45" s="4">
         <v>54</v>
       </c>
-      <c r="D45" s="4">
+      <c r="E45" s="4">
         <v>4.5714285714285703</v>
       </c>
-      <c r="E45" s="4">
+      <c r="F45" s="4">
         <v>1.8571428571428601</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>166.142857142857</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>52.428571428571402</v>
-      </c>
-      <c r="H45" s="4">
-        <v>8.8571428571428594</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4">
-        <v>155</v>
+        <v>86.857142857142904</v>
       </c>
       <c r="C46" s="4">
+        <v>86.857142857142904</v>
+      </c>
+      <c r="D46" s="4">
         <v>8.71428571428571</v>
       </c>
-      <c r="D46" s="4">
+      <c r="E46" s="4">
         <v>1.28571428571429</v>
       </c>
-      <c r="E46" s="4">
+      <c r="F46" s="4">
         <v>2.1428571428571401</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>33.714285714285701</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>6.28571428571429</v>
-      </c>
-      <c r="H46" s="4">
-        <v>1.4285714285714299</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" s="4">
-        <v>88</v>
+        <v>42.285714285714299</v>
       </c>
       <c r="C47" s="4">
+        <v>42.285714285714299</v>
+      </c>
+      <c r="D47" s="4">
         <v>4.5714285714285703</v>
       </c>
-      <c r="D47" s="4">
+      <c r="E47" s="4">
         <v>0.57142857142857095</v>
       </c>
-      <c r="E47" s="4">
+      <c r="F47" s="4">
         <v>0.28571428571428598</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>15.285714285714301</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>3.71428571428571</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0.71428571428571397</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" s="4">
-        <v>96</v>
+        <v>52.857142857142897</v>
       </c>
       <c r="C48" s="4">
+        <v>52.857142857142897</v>
+      </c>
+      <c r="D48" s="4">
         <v>2.4285714285714302</v>
-      </c>
-      <c r="D48" s="4">
-        <v>0.14285714285714299</v>
       </c>
       <c r="E48" s="4">
         <v>0.14285714285714299</v>
       </c>
       <c r="F48" s="4">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="G48" s="4">
         <v>31.571428571428601</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>3.28571428571429</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0.57142857142857095</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" s="4">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="C49" s="4">
+        <v>33</v>
+      </c>
+      <c r="D49" s="4">
         <v>1.1428571428571399</v>
       </c>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
       <c r="E49" s="4">
         <v>0</v>
       </c>
       <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
         <v>17.8571428571429</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>0.28571428571428598</v>
-      </c>
-      <c r="H49" s="4">
-        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" s="4">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C50" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" s="4">
         <v>1.28571428571429</v>
       </c>
-      <c r="D50" s="4">
+      <c r="E50" s="4">
         <v>0.28571428571428598</v>
       </c>
-      <c r="E50" s="4">
+      <c r="F50" s="4">
         <v>0.14285714285714299</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>5</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="4">
         <v>1</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0.14285714285714299</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" s="4">
-        <v>80</v>
+        <v>41.285714285714299</v>
       </c>
       <c r="C51" s="4">
+        <v>41.285714285714299</v>
+      </c>
+      <c r="D51" s="4">
         <v>4.1428571428571397</v>
       </c>
-      <c r="D51" s="4">
+      <c r="E51" s="4">
         <v>0.42857142857142899</v>
       </c>
-      <c r="E51" s="4">
+      <c r="F51" s="4">
         <v>0.14285714285714299</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>17.428571428571399</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <v>3.4285714285714302</v>
-      </c>
-      <c r="H51" s="4">
-        <v>0.42857142857142899</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" s="4">
-        <v>189</v>
+        <v>83.285714285714306</v>
       </c>
       <c r="C52" s="4">
+        <v>83.285714285714306</v>
+      </c>
+      <c r="D52" s="4">
         <v>16.714285714285701</v>
       </c>
-      <c r="D52" s="4">
+      <c r="E52" s="4">
         <v>0.71428571428571397</v>
       </c>
-      <c r="E52" s="4">
+      <c r="F52" s="4">
         <v>0.57142857142857095</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G52" s="4">
         <v>28.571428571428601</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H52" s="4">
         <v>12.5714285714286</v>
-      </c>
-      <c r="H52" s="4">
-        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" s="4">
-        <v>57</v>
+        <v>24.571428571428601</v>
       </c>
       <c r="C53" s="4">
+        <v>24.571428571428601</v>
+      </c>
+      <c r="D53" s="4">
         <v>2.28571428571429</v>
       </c>
-      <c r="D53" s="4">
+      <c r="E53" s="4">
         <v>1.28571428571429</v>
       </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
       <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="4">
         <v>9.28571428571429</v>
       </c>
-      <c r="G53" s="4">
+      <c r="H53" s="4">
         <v>2.28571428571429</v>
-      </c>
-      <c r="H53" s="4">
-        <v>0.28571428571428598</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" s="4">
-        <v>5195</v>
+        <v>2547.7142857142853</v>
       </c>
       <c r="C54" s="4">
+        <v>2547.7142857142853</v>
+      </c>
+      <c r="D54" s="4">
         <v>326.00000000000011</v>
       </c>
-      <c r="D54" s="4">
+      <c r="E54" s="4">
         <v>34.857142857142847</v>
       </c>
-      <c r="E54" s="4">
+      <c r="F54" s="4">
         <v>36.285714285714313</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <v>284.4285714285715</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H54" s="4">
         <v>794.2857142857149</v>
-      </c>
-      <c r="H54" s="4">
-        <v>58.285714285714235</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" s="4">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="C55" s="4">
+        <v>94</v>
+      </c>
+      <c r="D55" s="4">
         <v>11.5714285714286</v>
-      </c>
-      <c r="D55" s="4">
-        <v>0.85714285714285698</v>
       </c>
       <c r="E55" s="4">
         <v>0.85714285714285698</v>
       </c>
       <c r="F55" s="4">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="G55" s="4">
         <v>9.5714285714285694</v>
       </c>
-      <c r="G55" s="4">
+      <c r="H55" s="4">
         <v>30.8571428571429</v>
-      </c>
-      <c r="H55" s="4">
-        <v>2.4285714285714302</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" s="4">
-        <v>668</v>
+        <v>322.28571428571399</v>
       </c>
       <c r="C56" s="4">
+        <v>322.28571428571399</v>
+      </c>
+      <c r="D56" s="4">
         <v>45.857142857142897</v>
       </c>
-      <c r="D56" s="4">
+      <c r="E56" s="4">
         <v>4</v>
       </c>
-      <c r="E56" s="4">
+      <c r="F56" s="4">
         <v>2.5714285714285698</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G56" s="4">
         <v>36.857142857142897</v>
       </c>
-      <c r="G56" s="4">
+      <c r="H56" s="4">
         <v>93.142857142857096</v>
-      </c>
-      <c r="H56" s="4">
-        <v>7.5714285714285703</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57" s="4">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C57" s="4">
+        <v>58</v>
+      </c>
+      <c r="D57" s="4">
         <v>6.28571428571429</v>
       </c>
-      <c r="D57" s="4">
+      <c r="E57" s="4">
         <v>1.28571428571429</v>
       </c>
-      <c r="E57" s="4">
+      <c r="F57" s="4">
         <v>0.14285714285714299</v>
       </c>
-      <c r="F57" s="4">
+      <c r="G57" s="4">
         <v>16.285714285714299</v>
       </c>
-      <c r="G57" s="4">
+      <c r="H57" s="4">
         <v>18.285714285714299</v>
-      </c>
-      <c r="H57" s="4">
-        <v>1.1428571428571399</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" s="4">
-        <v>393</v>
+        <v>199.71428571428601</v>
       </c>
       <c r="C58" s="4">
+        <v>199.71428571428601</v>
+      </c>
+      <c r="D58" s="4">
         <v>22.571428571428601</v>
       </c>
-      <c r="D58" s="4">
+      <c r="E58" s="4">
         <v>5.28571428571429</v>
       </c>
-      <c r="E58" s="4">
+      <c r="F58" s="4">
         <v>1.1428571428571399</v>
       </c>
-      <c r="F58" s="4">
+      <c r="G58" s="4">
         <v>32.285714285714299</v>
       </c>
-      <c r="G58" s="4">
+      <c r="H58" s="4">
         <v>74.571428571428598</v>
-      </c>
-      <c r="H58" s="4">
-        <v>5.1428571428571397</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59" s="4">
-        <v>116</v>
+        <v>60.142857142857103</v>
       </c>
       <c r="C59" s="4">
+        <v>60.142857142857103</v>
+      </c>
+      <c r="D59" s="4">
         <v>5.8571428571428603</v>
       </c>
-      <c r="D59" s="4">
+      <c r="E59" s="4">
         <v>0.57142857142857095</v>
       </c>
-      <c r="E59" s="4">
+      <c r="F59" s="4">
         <v>0.14285714285714299</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G59" s="4">
         <v>6.1428571428571397</v>
       </c>
-      <c r="G59" s="4">
+      <c r="H59" s="4">
         <v>22</v>
-      </c>
-      <c r="H59" s="4">
-        <v>1.1428571428571399</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" s="4">
-        <v>20</v>
+        <v>12.4285714285714</v>
       </c>
       <c r="C60" s="4">
+        <v>12.4285714285714</v>
+      </c>
+      <c r="D60" s="4">
         <v>2.4285714285714302</v>
       </c>
-      <c r="D60" s="4">
+      <c r="E60" s="4">
         <v>0.28571428571428598</v>
       </c>
-      <c r="E60" s="4">
-        <v>0</v>
-      </c>
       <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
         <v>2.71428571428571</v>
       </c>
-      <c r="G60" s="4">
+      <c r="H60" s="4">
         <v>3.5714285714285698</v>
-      </c>
-      <c r="H60" s="4">
-        <v>0.42857142857142899</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" s="4">
-        <v>79</v>
+        <v>38.571428571428598</v>
       </c>
       <c r="C61" s="4">
+        <v>38.571428571428598</v>
+      </c>
+      <c r="D61" s="4">
         <v>7.1428571428571397</v>
       </c>
-      <c r="D61" s="4">
+      <c r="E61" s="4">
         <v>1.71428571428571</v>
       </c>
-      <c r="E61" s="4">
+      <c r="F61" s="4">
         <v>0.14285714285714299</v>
       </c>
-      <c r="F61" s="4">
+      <c r="G61" s="4">
         <v>3.5714285714285698</v>
       </c>
-      <c r="G61" s="4">
+      <c r="H61" s="4">
         <v>11.285714285714301</v>
-      </c>
-      <c r="H61" s="4">
-        <v>1.4285714285714299</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" s="4">
-        <v>420</v>
+        <v>195.71428571428601</v>
       </c>
       <c r="C62" s="4">
+        <v>195.71428571428601</v>
+      </c>
+      <c r="D62" s="4">
         <v>27.714285714285701</v>
       </c>
-      <c r="D62" s="4">
+      <c r="E62" s="4">
         <v>2.71428571428571</v>
       </c>
-      <c r="E62" s="4">
+      <c r="F62" s="4">
         <v>5.1428571428571397</v>
       </c>
-      <c r="F62" s="4">
+      <c r="G62" s="4">
         <v>18.1428571428571</v>
       </c>
-      <c r="G62" s="4">
+      <c r="H62" s="4">
         <v>59.142857142857103</v>
-      </c>
-      <c r="H62" s="4">
-        <v>4.5714285714285703</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" s="4">
-        <v>213</v>
+        <v>119.428571428571</v>
       </c>
       <c r="C63" s="4">
+        <v>119.428571428571</v>
+      </c>
+      <c r="D63" s="4">
         <v>12.285714285714301</v>
       </c>
-      <c r="D63" s="4">
+      <c r="E63" s="4">
         <v>0.85714285714285698</v>
       </c>
-      <c r="E63" s="4">
+      <c r="F63" s="4">
         <v>11.8571428571429</v>
       </c>
-      <c r="F63" s="4">
+      <c r="G63" s="4">
         <v>13.8571428571429</v>
       </c>
-      <c r="G63" s="4">
+      <c r="H63" s="4">
         <v>39</v>
-      </c>
-      <c r="H63" s="4">
-        <v>1.28571428571429</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4">
-        <v>77</v>
+        <v>28.428571428571399</v>
       </c>
       <c r="C64" s="4">
+        <v>28.428571428571399</v>
+      </c>
+      <c r="D64" s="4">
         <v>6</v>
       </c>
-      <c r="D64" s="4">
-        <v>0</v>
-      </c>
       <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
         <v>0.85714285714285698</v>
       </c>
-      <c r="F64" s="4">
+      <c r="G64" s="4">
         <v>3</v>
       </c>
-      <c r="G64" s="4">
+      <c r="H64" s="4">
         <v>9.71428571428571</v>
-      </c>
-      <c r="H64" s="4">
-        <v>0.28571428571428598</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" s="4">
-        <v>354</v>
+        <v>172.142857142857</v>
       </c>
       <c r="C65" s="4">
+        <v>172.142857142857</v>
+      </c>
+      <c r="D65" s="4">
         <v>27.571428571428601</v>
       </c>
-      <c r="D65" s="4">
+      <c r="E65" s="4">
         <v>4.1428571428571397</v>
       </c>
-      <c r="E65" s="4">
+      <c r="F65" s="4">
         <v>1.1428571428571399</v>
       </c>
-      <c r="F65" s="4">
+      <c r="G65" s="4">
         <v>20.8571428571429</v>
       </c>
-      <c r="G65" s="4">
+      <c r="H65" s="4">
         <v>48.571428571428598</v>
-      </c>
-      <c r="H65" s="4">
-        <v>5.1428571428571397</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" s="4">
-        <v>1359</v>
+        <v>667.28571428571399</v>
       </c>
       <c r="C66" s="4">
+        <v>667.28571428571399</v>
+      </c>
+      <c r="D66" s="4">
         <v>86.428571428571402</v>
       </c>
-      <c r="D66" s="4">
+      <c r="E66" s="4">
         <v>7.71428571428571</v>
       </c>
-      <c r="E66" s="4">
+      <c r="F66" s="4">
         <v>6.5714285714285703</v>
       </c>
-      <c r="F66" s="4">
+      <c r="G66" s="4">
         <v>68</v>
       </c>
-      <c r="G66" s="4">
+      <c r="H66" s="4">
         <v>212.57142857142901</v>
-      </c>
-      <c r="H66" s="4">
-        <v>16.428571428571399</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" s="4">
-        <v>1022</v>
+        <v>500.857142857143</v>
       </c>
       <c r="C67" s="4">
+        <v>500.857142857143</v>
+      </c>
+      <c r="D67" s="4">
         <v>53</v>
       </c>
-      <c r="D67" s="4">
+      <c r="E67" s="4">
         <v>4.71428571428571</v>
       </c>
-      <c r="E67" s="4">
+      <c r="F67" s="4">
         <v>4.8571428571428603</v>
       </c>
-      <c r="F67" s="4">
+      <c r="G67" s="4">
         <v>43.428571428571402</v>
       </c>
-      <c r="G67" s="4">
+      <c r="H67" s="4">
         <v>144.857142857143</v>
-      </c>
-      <c r="H67" s="4">
-        <v>9.1428571428571406</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" s="4">
-        <v>154</v>
+        <v>78.714285714285694</v>
       </c>
       <c r="C68" s="4">
+        <v>78.714285714285694</v>
+      </c>
+      <c r="D68" s="4">
         <v>11.285714285714301</v>
       </c>
-      <c r="D68" s="4">
+      <c r="E68" s="4">
         <v>0.71428571428571397</v>
       </c>
-      <c r="E68" s="4">
+      <c r="F68" s="4">
         <v>0.85714285714285698</v>
       </c>
-      <c r="F68" s="4">
+      <c r="G68" s="4">
         <v>9.71428571428571</v>
       </c>
-      <c r="G68" s="4">
+      <c r="H68" s="4">
         <v>26.714285714285701</v>
-      </c>
-      <c r="H68" s="4">
-        <v>2.1428571428571401</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69" s="4">
-        <v>20</v>
+        <v>13.8571428571429</v>
       </c>
       <c r="C69" s="4">
+        <v>13.8571428571429</v>
+      </c>
+      <c r="D69" s="4">
         <v>3.1428571428571401</v>
       </c>
-      <c r="D69" s="4">
+      <c r="E69" s="4">
         <v>0.57142857142857095</v>
       </c>
-      <c r="E69" s="4">
-        <v>0</v>
-      </c>
       <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
         <v>1.5714285714285701</v>
       </c>
-      <c r="G69" s="4">
+      <c r="H69" s="4">
         <v>2.4285714285714302</v>
-      </c>
-      <c r="H69" s="4">
-        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70" s="4">
-        <v>20</v>
+        <v>13.8571428571429</v>
       </c>
       <c r="C70" s="4">
+        <v>13.8571428571429</v>
+      </c>
+      <c r="D70" s="4">
         <v>3.1428571428571401</v>
       </c>
-      <c r="D70" s="4">
+      <c r="E70" s="4">
         <v>0.57142857142857095</v>
       </c>
-      <c r="E70" s="4">
-        <v>0</v>
-      </c>
       <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
         <v>1.5714285714285701</v>
       </c>
-      <c r="G70" s="4">
+      <c r="H70" s="4">
         <v>2.4285714285714302</v>
-      </c>
-      <c r="H70" s="4">
-        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="4">
-        <v>18294</v>
-      </c>
-      <c r="C71" s="4">
+        <v>77</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="4">
+        <v>8779.1428571428532</v>
+      </c>
+      <c r="C72" s="4">
+        <v>8779.1428571428532</v>
+      </c>
+      <c r="D72" s="4">
         <v>1551.1428571428567</v>
       </c>
-      <c r="D71" s="4">
+      <c r="E72" s="4">
         <v>501.71428571428561</v>
       </c>
-      <c r="E71" s="4">
+      <c r="F72" s="4">
         <v>224.71428571428589</v>
       </c>
-      <c r="F71" s="4">
+      <c r="G72" s="4">
         <v>1656.714285714286</v>
       </c>
-      <c r="G71" s="4">
+      <c r="H72" s="4">
         <v>1472.7142857142869</v>
-      </c>
-      <c r="H71" s="4">
-        <v>194.71428571428558</v>
       </c>
     </row>
   </sheetData>
@@ -4063,15 +4185,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I61"/>
+      <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4099,373 +4221,412 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>11.714285714285699</v>
+      </c>
+      <c r="D2">
+        <v>11.714285714285699</v>
+      </c>
+      <c r="E2">
+        <v>2.28571428571429</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="I2">
+        <v>3.1428571428571401</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>29</v>
-      </c>
-      <c r="D2">
-        <v>2.28571428571429</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>16.285714285714299</v>
+      </c>
+      <c r="D3">
+        <v>16.285714285714299</v>
+      </c>
+      <c r="E3">
+        <v>3.28571428571429</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="I3">
+        <v>4.28571428571429</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>541.57142857142901</v>
+      </c>
+      <c r="D4">
+        <v>541.57142857142901</v>
+      </c>
+      <c r="E4">
+        <v>133.57142857142901</v>
+      </c>
+      <c r="F4">
+        <v>23.428571428571399</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>148.142857142857</v>
+      </c>
+      <c r="I4">
+        <v>88.428571428571402</v>
+      </c>
+      <c r="J4">
+        <v>24.1428571428571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>34.285714285714299</v>
+      </c>
+      <c r="D5">
+        <v>34.285714285714299</v>
+      </c>
+      <c r="E5">
+        <v>8.4285714285714306</v>
+      </c>
+      <c r="F5">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3.8571428571428599</v>
+      </c>
+      <c r="I5">
+        <v>6.4285714285714297</v>
+      </c>
+      <c r="J5">
         <v>0.85714285714285698</v>
       </c>
-      <c r="H2">
-        <v>3.1428571428571401</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>39</v>
-      </c>
-      <c r="D3">
-        <v>3.28571428571429</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1.28571428571429</v>
-      </c>
-      <c r="H3">
-        <v>4.28571428571429</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>1661</v>
-      </c>
-      <c r="D4">
-        <v>133.57142857142901</v>
-      </c>
-      <c r="E4">
-        <v>23.428571428571399</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>148.142857142857</v>
-      </c>
-      <c r="H4">
-        <v>88.428571428571402</v>
-      </c>
-      <c r="I4">
-        <v>24.1428571428571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="C5">
-        <v>71</v>
-      </c>
-      <c r="D5">
-        <v>8.4285714285714306</v>
-      </c>
-      <c r="E5">
-        <v>0.42857142857142899</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.8571428571428599</v>
-      </c>
-      <c r="H5">
-        <v>6.4285714285714297</v>
-      </c>
-      <c r="I5">
-        <v>0.85714285714285698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>20.285714285714299</v>
       </c>
       <c r="D6">
+        <v>20.285714285714299</v>
+      </c>
+      <c r="E6">
         <v>7.8571428571428603</v>
-      </c>
-      <c r="E6">
-        <v>0.14285714285714299</v>
       </c>
       <c r="F6">
         <v>0.14285714285714299</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>227</v>
+        <v>113.571428571429</v>
       </c>
       <c r="D7">
+        <v>113.571428571429</v>
+      </c>
+      <c r="E7">
         <v>41.428571428571402</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.8571428571428601</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.85714285714285698</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>13.1428571428571</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>13.8571428571429</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2.5714285714285698</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>30.428571428571399</v>
       </c>
       <c r="D8">
+        <v>30.428571428571399</v>
+      </c>
+      <c r="E8">
         <v>12.1428571428571</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>0.28571428571428598</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.28571428571429</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.8571428571428601</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>72</v>
+        <v>38.142857142857103</v>
       </c>
       <c r="D9">
+        <v>38.142857142857103</v>
+      </c>
+      <c r="E9">
         <v>10.4285714285714</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.57142857142857095</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1.1428571428571399</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5.4285714285714297</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>6.1428571428571397</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.71428571428571397</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>713</v>
+        <v>377.57142857142901</v>
       </c>
       <c r="D10">
+        <v>377.57142857142901</v>
+      </c>
+      <c r="E10">
         <v>107.142857142857</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4.8571428571428603</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>43.285714285714299</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>50.428571428571402</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>9.8571428571428594</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>134</v>
+        <v>50.714285714285701</v>
       </c>
       <c r="D11">
+        <v>50.714285714285701</v>
+      </c>
+      <c r="E11">
         <v>0.57142857142857095</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>0.28571428571428598</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>0.42857142857142899</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>561</v>
+        <v>260.28571428571399</v>
       </c>
       <c r="D12">
+        <v>260.28571428571399</v>
+      </c>
+      <c r="E12">
         <v>75.714285714285694</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>3.5714285714285698</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4.5714285714285703</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>24.285714285714299</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>29</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>6.4285714285714297</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>22.714285714285701</v>
       </c>
       <c r="D13">
+        <v>22.714285714285701</v>
+      </c>
+      <c r="E13">
         <v>5.71428571428571</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.28571428571428598</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.71428571428571397</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>2.71428571428571</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.8571428571428601</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="D14">
-        <v>0.14285714285714299</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="E14">
         <v>0.14285714285714299</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -4476,48 +4637,54 @@
       <c r="I14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>711</v>
+        <v>346.142857142857</v>
       </c>
       <c r="D15">
+        <v>346.142857142857</v>
+      </c>
+      <c r="E15">
         <v>186.42857142857099</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.28571428571429</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>26.285714285714299</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>48.714285714285701</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>17</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>4.28571428571429</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4534,200 +4701,221 @@
       <c r="I16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17">
-        <v>58</v>
+        <v>27.571428571428601</v>
       </c>
       <c r="D17">
+        <v>27.571428571428601</v>
+      </c>
+      <c r="E17">
         <v>11.5714285714286</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.28571428571428598</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.42857142857142899</v>
-      </c>
-      <c r="G17">
-        <v>2.4285714285714302</v>
       </c>
       <c r="H17">
         <v>2.4285714285714302</v>
       </c>
       <c r="I17">
+        <v>2.4285714285714302</v>
+      </c>
+      <c r="J17">
         <v>0.28571428571428598</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
-        <v>170</v>
+        <v>81.285714285714306</v>
       </c>
       <c r="D18">
+        <v>81.285714285714306</v>
+      </c>
+      <c r="E18">
         <v>36.714285714285701</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.71428571428571397</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.8571428571428601</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>7.28571428571429</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5.71428571428571</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.57142857142857095</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="D19">
+        <v>82</v>
+      </c>
+      <c r="E19">
         <v>22.428571428571399</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.8571428571428601</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.28571428571428598</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>10.4285714285714</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>14</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1.4285714285714299</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>239</v>
+        <v>141.142857142857</v>
       </c>
       <c r="D20">
+        <v>141.142857142857</v>
+      </c>
+      <c r="E20">
         <v>34.142857142857103</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2.4285714285714302</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>4.28571428571429</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>18.1428571428571</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>21.8571428571429</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5.71428571428571</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>161</v>
+        <v>80.571428571428598</v>
       </c>
       <c r="D21">
+        <v>80.571428571428598</v>
+      </c>
+      <c r="E21">
         <v>38.714285714285701</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1.71428571428571</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.28571428571428598</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>9.5714285714285694</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>9.71428571428571</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1.28571428571429</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>1151.2857142857099</v>
+      </c>
+      <c r="D22">
+        <v>1151.2857142857099</v>
+      </c>
+      <c r="E22">
+        <v>110.571428571429</v>
+      </c>
+      <c r="F22">
+        <v>289</v>
+      </c>
+      <c r="G22">
+        <v>8.71428571428571</v>
+      </c>
+      <c r="H22">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>94.857142857142904</v>
+      </c>
+      <c r="J22">
+        <v>13.8571428571429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="C22">
-        <v>2100</v>
-      </c>
-      <c r="D22">
-        <v>110.571428571429</v>
-      </c>
-      <c r="E22">
-        <v>289</v>
-      </c>
-      <c r="F22">
-        <v>8.71428571428571</v>
-      </c>
-      <c r="G22">
-        <v>86</v>
-      </c>
-      <c r="H22">
-        <v>94.857142857142904</v>
-      </c>
-      <c r="I22">
-        <v>13.8571428571429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>0.42857142857142899</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.42857142857142899</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>0.14285714285714299</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
       <c r="G23">
         <v>0</v>
       </c>
@@ -4737,54 +4925,60 @@
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
-        <v>347</v>
+        <v>166.71428571428601</v>
       </c>
       <c r="D24">
+        <v>166.71428571428601</v>
+      </c>
+      <c r="E24">
         <v>22</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>38</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.71428571428571397</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>21.428571428571399</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>17.8571428571429</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3.4285714285714302</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="D25">
-        <v>0.14285714285714299</v>
+        <v>0.57142857142857095</v>
       </c>
       <c r="E25">
         <v>0.14285714285714299</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.14285714285714299</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -4795,1048 +4989,1159 @@
       <c r="I25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26">
-        <v>874</v>
+        <v>326.71428571428601</v>
       </c>
       <c r="D26">
+        <v>326.71428571428601</v>
+      </c>
+      <c r="E26">
         <v>62</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>64.714285714285694</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1.28571428571429</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>71.285714285714306</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>35.142857142857103</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>12.1428571428571</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27">
-        <v>819</v>
+        <v>430.71428571428601</v>
       </c>
       <c r="D27">
+        <v>430.71428571428601</v>
+      </c>
+      <c r="E27">
         <v>64.714285714285694</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>3.5714285714285698</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>116.857142857143</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>51.428571428571402</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>59.714285714285701</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>9.71428571428571</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="D28">
+        <v>14.285714285714301</v>
+      </c>
+      <c r="E28">
+        <v>1.4285714285714299</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>4.8571428571428603</v>
+      </c>
+      <c r="I28">
+        <v>2.1428571428571401</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>94.714285714285694</v>
+      </c>
+      <c r="D29">
+        <v>94.714285714285694</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="G29">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="H29">
+        <v>50.142857142857103</v>
+      </c>
+      <c r="I29">
+        <v>8.5714285714285694</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30">
+        <v>166.42857142857099</v>
+      </c>
+      <c r="D30">
+        <v>166.42857142857099</v>
+      </c>
+      <c r="E30">
+        <v>22.1428571428571</v>
+      </c>
+      <c r="F30">
         <v>1.4285714285714299</v>
       </c>
-      <c r="E28">
+      <c r="G30">
         <v>1</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>4.8571428571428603</v>
-      </c>
-      <c r="H28">
+      <c r="H30">
+        <v>73.571428571428598</v>
+      </c>
+      <c r="I30">
+        <v>17.428571428571399</v>
+      </c>
+      <c r="J30">
+        <v>3.1428571428571401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>222.42857142857099</v>
+      </c>
+      <c r="D31">
+        <v>222.42857142857099</v>
+      </c>
+      <c r="E31">
+        <v>26.428571428571399</v>
+      </c>
+      <c r="F31">
+        <v>1.71428571428571</v>
+      </c>
+      <c r="G31">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="H31">
+        <v>105.571428571429</v>
+      </c>
+      <c r="I31">
+        <v>21.1428571428571</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>37.142857142857103</v>
+      </c>
+      <c r="D32">
+        <v>37.142857142857103</v>
+      </c>
+      <c r="E32">
+        <v>4.1428571428571397</v>
+      </c>
+      <c r="F32">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="G32">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="H32">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>0.42857142857142899</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>40.571428571428598</v>
+      </c>
+      <c r="D33">
+        <v>40.571428571428598</v>
+      </c>
+      <c r="E33">
+        <v>4.1428571428571397</v>
+      </c>
+      <c r="F33">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="G33">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="H33">
+        <v>21</v>
+      </c>
+      <c r="I33">
+        <v>3.71428571428571</v>
+      </c>
+      <c r="J33">
+        <v>0.14285714285714299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>323.142857142857</v>
+      </c>
+      <c r="D34">
+        <v>323.142857142857</v>
+      </c>
+      <c r="E34">
+        <v>37.714285714285701</v>
+      </c>
+      <c r="F34">
+        <v>7.8571428571428603</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>121.142857142857</v>
+      </c>
+      <c r="I34">
+        <v>31.285714285714299</v>
+      </c>
+      <c r="J34">
+        <v>6.4285714285714297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>22.1428571428571</v>
+      </c>
+      <c r="D35">
+        <v>22.1428571428571</v>
+      </c>
+      <c r="E35">
+        <v>3.1428571428571401</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="H35">
+        <v>8.28571428571429</v>
+      </c>
+      <c r="I35">
+        <v>3.4285714285714302</v>
+      </c>
+      <c r="J35">
+        <v>0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>117.857142857143</v>
+      </c>
+      <c r="D36">
+        <v>117.857142857143</v>
+      </c>
+      <c r="E36">
+        <v>13.1428571428571</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="H36">
+        <v>49</v>
+      </c>
+      <c r="I36">
+        <v>8.28571428571429</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>46</v>
+      </c>
+      <c r="E37">
+        <v>5.28571428571429</v>
+      </c>
+      <c r="F37">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>21</v>
+      </c>
+      <c r="I37">
+        <v>3.71428571428571</v>
+      </c>
+      <c r="J37">
+        <v>0.42857142857142899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>404.28571428571399</v>
+      </c>
+      <c r="D38">
+        <v>404.28571428571399</v>
+      </c>
+      <c r="E38">
+        <v>54</v>
+      </c>
+      <c r="F38">
+        <v>4.5714285714285703</v>
+      </c>
+      <c r="G38">
+        <v>1.8571428571428601</v>
+      </c>
+      <c r="H38">
+        <v>166.142857142857</v>
+      </c>
+      <c r="I38">
+        <v>52.428571428571402</v>
+      </c>
+      <c r="J38">
+        <v>8.8571428571428594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>86.857142857142904</v>
+      </c>
+      <c r="D39">
+        <v>86.857142857142904</v>
+      </c>
+      <c r="E39">
+        <v>8.71428571428571</v>
+      </c>
+      <c r="F39">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="G39">
         <v>2.1428571428571401</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29">
-        <v>207</v>
-      </c>
-      <c r="D29">
-        <v>11</v>
-      </c>
-      <c r="E29">
+      <c r="H39">
+        <v>33.714285714285701</v>
+      </c>
+      <c r="I39">
+        <v>6.28571428571429</v>
+      </c>
+      <c r="J39">
+        <v>1.4285714285714299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>42.285714285714299</v>
+      </c>
+      <c r="D40">
+        <v>42.285714285714299</v>
+      </c>
+      <c r="E40">
+        <v>4.5714285714285703</v>
+      </c>
+      <c r="F40">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="G40">
+        <v>0.28571428571428598</v>
+      </c>
+      <c r="H40">
+        <v>15.285714285714301</v>
+      </c>
+      <c r="I40">
+        <v>3.71428571428571</v>
+      </c>
+      <c r="J40">
         <v>0.71428571428571397</v>
       </c>
-      <c r="F29">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="G29">
-        <v>50.142857142857103</v>
-      </c>
-      <c r="H29">
-        <v>8.5714285714285694</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30">
-        <v>339</v>
-      </c>
-      <c r="D30">
-        <v>22.1428571428571</v>
-      </c>
-      <c r="E30">
-        <v>1.4285714285714299</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>73.571428571428598</v>
-      </c>
-      <c r="H30">
-        <v>17.428571428571399</v>
-      </c>
-      <c r="I30">
-        <v>3.1428571428571401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31">
-        <v>465</v>
-      </c>
-      <c r="D31">
-        <v>26.428571428571399</v>
-      </c>
-      <c r="E31">
-        <v>1.71428571428571</v>
-      </c>
-      <c r="F31">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="G31">
-        <v>105.571428571429</v>
-      </c>
-      <c r="H31">
-        <v>21.1428571428571</v>
-      </c>
-      <c r="I31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32">
-        <v>74</v>
-      </c>
-      <c r="D32">
-        <v>4.1428571428571397</v>
-      </c>
-      <c r="E32">
-        <v>0.42857142857142899</v>
-      </c>
-      <c r="F32">
-        <v>0.14285714285714299</v>
-      </c>
-      <c r="G32">
-        <v>18</v>
-      </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
-      <c r="I32">
-        <v>0.42857142857142899</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33">
-        <v>96</v>
-      </c>
-      <c r="D33">
-        <v>4.1428571428571397</v>
-      </c>
-      <c r="E33">
-        <v>0.71428571428571397</v>
-      </c>
-      <c r="F33">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="G33">
-        <v>21</v>
-      </c>
-      <c r="H33">
-        <v>3.71428571428571</v>
-      </c>
-      <c r="I33">
-        <v>0.14285714285714299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34">
-        <v>665</v>
-      </c>
-      <c r="D34">
-        <v>37.714285714285701</v>
-      </c>
-      <c r="E34">
-        <v>7.8571428571428603</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>121.142857142857</v>
-      </c>
-      <c r="H34">
-        <v>31.285714285714299</v>
-      </c>
-      <c r="I34">
-        <v>6.4285714285714297</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35">
-        <v>46</v>
-      </c>
-      <c r="D35">
-        <v>3.1428571428571401</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="G35">
-        <v>8.28571428571429</v>
-      </c>
-      <c r="H35">
-        <v>3.4285714285714302</v>
-      </c>
-      <c r="I35">
-        <v>0.28571428571428598</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36">
-        <v>255</v>
-      </c>
-      <c r="D36">
-        <v>13.1428571428571</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.42857142857142899</v>
-      </c>
-      <c r="G36">
-        <v>49</v>
-      </c>
-      <c r="H36">
-        <v>8.28571428571429</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37">
-        <v>89</v>
-      </c>
-      <c r="D37">
-        <v>5.28571428571429</v>
-      </c>
-      <c r="E37">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>21</v>
-      </c>
-      <c r="H37">
-        <v>3.71428571428571</v>
-      </c>
-      <c r="I37">
-        <v>0.42857142857142899</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38">
-        <v>716</v>
-      </c>
-      <c r="D38">
-        <v>54</v>
-      </c>
-      <c r="E38">
-        <v>4.5714285714285703</v>
-      </c>
-      <c r="F38">
-        <v>1.8571428571428601</v>
-      </c>
-      <c r="G38">
-        <v>166.142857142857</v>
-      </c>
-      <c r="H38">
-        <v>52.428571428571402</v>
-      </c>
-      <c r="I38">
-        <v>8.8571428571428594</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39">
-        <v>155</v>
-      </c>
-      <c r="D39">
-        <v>8.71428571428571</v>
-      </c>
-      <c r="E39">
-        <v>1.28571428571429</v>
-      </c>
-      <c r="F39">
-        <v>2.1428571428571401</v>
-      </c>
-      <c r="G39">
-        <v>33.714285714285701</v>
-      </c>
-      <c r="H39">
-        <v>6.28571428571429</v>
-      </c>
-      <c r="I39">
-        <v>1.4285714285714299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40">
-        <v>88</v>
-      </c>
-      <c r="D40">
-        <v>4.5714285714285703</v>
-      </c>
-      <c r="E40">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="F40">
-        <v>0.28571428571428598</v>
-      </c>
-      <c r="G40">
-        <v>15.285714285714301</v>
-      </c>
-      <c r="H40">
-        <v>3.71428571428571</v>
-      </c>
-      <c r="I40">
-        <v>0.71428571428571397</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C41">
-        <v>96</v>
+        <v>52.857142857142897</v>
       </c>
       <c r="D41">
+        <v>52.857142857142897</v>
+      </c>
+      <c r="E41">
         <v>2.4285714285714302</v>
-      </c>
-      <c r="E41">
-        <v>0.14285714285714299</v>
       </c>
       <c r="F41">
         <v>0.14285714285714299</v>
       </c>
       <c r="G41">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="H41">
         <v>31.571428571428601</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>3.28571428571429</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>0.57142857142857095</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="D42">
+        <v>33</v>
+      </c>
+      <c r="E42">
         <v>1.1428571428571399</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>17.8571428571429</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>0.28571428571428598</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D43">
+        <v>11</v>
+      </c>
+      <c r="E43">
         <v>1.28571428571429</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>0.28571428571428598</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.14285714285714299</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>5</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>1</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0.14285714285714299</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44">
-        <v>80</v>
+        <v>41.285714285714299</v>
       </c>
       <c r="D44">
+        <v>41.285714285714299</v>
+      </c>
+      <c r="E44">
         <v>4.1428571428571397</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>0.42857142857142899</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.14285714285714299</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>17.428571428571399</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>3.4285714285714302</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0.42857142857142899</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45">
-        <v>189</v>
+        <v>83.285714285714306</v>
       </c>
       <c r="D45">
+        <v>83.285714285714306</v>
+      </c>
+      <c r="E45">
         <v>16.714285714285701</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>0.71428571428571397</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.57142857142857095</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>28.571428571428601</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>12.5714285714286</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46">
-        <v>57</v>
+        <v>24.571428571428601</v>
       </c>
       <c r="D46">
+        <v>24.571428571428601</v>
+      </c>
+      <c r="E46">
         <v>2.28571428571429</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>1.28571428571429</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>9.28571428571429</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>2.28571428571429</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>0.28571428571428598</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47">
-        <v>215</v>
+        <v>94</v>
       </c>
       <c r="D47">
+        <v>94</v>
+      </c>
+      <c r="E47">
         <v>11.5714285714286</v>
-      </c>
-      <c r="E47">
-        <v>0.85714285714285698</v>
       </c>
       <c r="F47">
         <v>0.85714285714285698</v>
       </c>
       <c r="G47">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="H47">
         <v>9.5714285714285694</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>30.8571428571429</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>2.4285714285714302</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48">
+        <v>322.28571428571399</v>
+      </c>
+      <c r="D48">
+        <v>322.28571428571399</v>
+      </c>
+      <c r="E48">
+        <v>45.857142857142897</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>2.5714285714285698</v>
+      </c>
+      <c r="H48">
+        <v>36.857142857142897</v>
+      </c>
+      <c r="I48">
+        <v>93.142857142857096</v>
+      </c>
+      <c r="J48">
+        <v>7.5714285714285703</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49">
         <v>58</v>
       </c>
-      <c r="B48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48">
-        <v>668</v>
-      </c>
-      <c r="D48">
-        <v>45.857142857142897</v>
-      </c>
-      <c r="E48">
-        <v>4</v>
-      </c>
-      <c r="F48">
-        <v>2.5714285714285698</v>
-      </c>
-      <c r="G48">
-        <v>36.857142857142897</v>
-      </c>
-      <c r="H48">
-        <v>93.142857142857096</v>
-      </c>
-      <c r="I48">
-        <v>7.5714285714285703</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="D49">
         <v>58</v>
       </c>
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49">
-        <v>105</v>
-      </c>
-      <c r="D49">
+      <c r="E49">
         <v>6.28571428571429</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>1.28571428571429</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.14285714285714299</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>16.285714285714299</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>18.285714285714299</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>1.1428571428571399</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50">
-        <v>393</v>
+        <v>199.71428571428601</v>
       </c>
       <c r="D50">
+        <v>199.71428571428601</v>
+      </c>
+      <c r="E50">
         <v>22.571428571428601</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>5.28571428571429</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>1.1428571428571399</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>32.285714285714299</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>74.571428571428598</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>5.1428571428571397</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51">
-        <v>116</v>
+        <v>60.142857142857103</v>
       </c>
       <c r="D51">
+        <v>60.142857142857103</v>
+      </c>
+      <c r="E51">
         <v>5.8571428571428603</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>0.57142857142857095</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.14285714285714299</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>6.1428571428571397</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>22</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>1.1428571428571399</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52">
-        <v>20</v>
+        <v>12.4285714285714</v>
       </c>
       <c r="D52">
+        <v>12.4285714285714</v>
+      </c>
+      <c r="E52">
         <v>2.4285714285714302</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>0.28571428571428598</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>2.71428571428571</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>3.5714285714285698</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>0.42857142857142899</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53">
-        <v>79</v>
+        <v>38.571428571428598</v>
       </c>
       <c r="D53">
+        <v>38.571428571428598</v>
+      </c>
+      <c r="E53">
         <v>7.1428571428571397</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>1.71428571428571</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>0.14285714285714299</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>3.5714285714285698</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>11.285714285714301</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>1.4285714285714299</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54">
-        <v>420</v>
+        <v>195.71428571428601</v>
       </c>
       <c r="D54">
+        <v>195.71428571428601</v>
+      </c>
+      <c r="E54">
         <v>27.714285714285701</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>2.71428571428571</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>5.1428571428571397</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>18.1428571428571</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>59.142857142857103</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>4.5714285714285703</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55">
-        <v>213</v>
+        <v>119.428571428571</v>
       </c>
       <c r="D55">
+        <v>119.428571428571</v>
+      </c>
+      <c r="E55">
         <v>12.285714285714301</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>0.85714285714285698</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>11.8571428571429</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>13.8571428571429</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>39</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>1.28571428571429</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>28.428571428571399</v>
+      </c>
+      <c r="D56">
+        <v>28.428571428571399</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
+        <v>9.71428571428571</v>
+      </c>
+      <c r="J56">
+        <v>0.28571428571428598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57">
+        <v>172.142857142857</v>
+      </c>
+      <c r="D57">
+        <v>172.142857142857</v>
+      </c>
+      <c r="E57">
+        <v>27.571428571428601</v>
+      </c>
+      <c r="F57">
+        <v>4.1428571428571397</v>
+      </c>
+      <c r="G57">
+        <v>1.1428571428571399</v>
+      </c>
+      <c r="H57">
+        <v>20.8571428571429</v>
+      </c>
+      <c r="I57">
+        <v>48.571428571428598</v>
+      </c>
+      <c r="J57">
+        <v>5.1428571428571397</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58">
+        <v>667.28571428571399</v>
+      </c>
+      <c r="D58">
+        <v>667.28571428571399</v>
+      </c>
+      <c r="E58">
+        <v>86.428571428571402</v>
+      </c>
+      <c r="F58">
+        <v>7.71428571428571</v>
+      </c>
+      <c r="G58">
+        <v>6.5714285714285703</v>
+      </c>
+      <c r="H58">
         <v>68</v>
       </c>
-      <c r="C56">
-        <v>77</v>
-      </c>
-      <c r="D56">
-        <v>6</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
+      <c r="I58">
+        <v>212.57142857142901</v>
+      </c>
+      <c r="J58">
+        <v>16.428571428571399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59">
+        <v>500.857142857143</v>
+      </c>
+      <c r="D59">
+        <v>500.857142857143</v>
+      </c>
+      <c r="E59">
+        <v>53</v>
+      </c>
+      <c r="F59">
+        <v>4.71428571428571</v>
+      </c>
+      <c r="G59">
+        <v>4.8571428571428603</v>
+      </c>
+      <c r="H59">
+        <v>43.428571428571402</v>
+      </c>
+      <c r="I59">
+        <v>144.857142857143</v>
+      </c>
+      <c r="J59">
+        <v>9.1428571428571406</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60">
+        <v>78.714285714285694</v>
+      </c>
+      <c r="D60">
+        <v>78.714285714285694</v>
+      </c>
+      <c r="E60">
+        <v>11.285714285714301</v>
+      </c>
+      <c r="F60">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="G60">
         <v>0.85714285714285698</v>
       </c>
-      <c r="G56">
-        <v>3</v>
-      </c>
-      <c r="H56">
+      <c r="H60">
         <v>9.71428571428571</v>
       </c>
-      <c r="I56">
-        <v>0.28571428571428598</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57">
-        <v>354</v>
-      </c>
-      <c r="D57">
-        <v>27.571428571428601</v>
-      </c>
-      <c r="E57">
-        <v>4.1428571428571397</v>
-      </c>
-      <c r="F57">
-        <v>1.1428571428571399</v>
-      </c>
-      <c r="G57">
-        <v>20.8571428571429</v>
-      </c>
-      <c r="H57">
-        <v>48.571428571428598</v>
-      </c>
-      <c r="I57">
-        <v>5.1428571428571397</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58">
-        <v>1359</v>
-      </c>
-      <c r="D58">
-        <v>86.428571428571402</v>
-      </c>
-      <c r="E58">
-        <v>7.71428571428571</v>
-      </c>
-      <c r="F58">
-        <v>6.5714285714285703</v>
-      </c>
-      <c r="G58">
-        <v>68</v>
-      </c>
-      <c r="H58">
-        <v>212.57142857142901</v>
-      </c>
-      <c r="I58">
-        <v>16.428571428571399</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59">
-        <v>1022</v>
-      </c>
-      <c r="D59">
-        <v>53</v>
-      </c>
-      <c r="E59">
-        <v>4.71428571428571</v>
-      </c>
-      <c r="F59">
-        <v>4.8571428571428603</v>
-      </c>
-      <c r="G59">
-        <v>43.428571428571402</v>
-      </c>
-      <c r="H59">
-        <v>144.857142857143</v>
-      </c>
-      <c r="I59">
-        <v>9.1428571428571406</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60">
-        <v>154</v>
-      </c>
-      <c r="D60">
-        <v>11.285714285714301</v>
-      </c>
-      <c r="E60">
-        <v>0.71428571428571397</v>
-      </c>
-      <c r="F60">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="G60">
-        <v>9.71428571428571</v>
-      </c>
-      <c r="H60">
+      <c r="I60">
         <v>26.714285714285701</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>2.1428571428571401</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>13.8571428571429</v>
       </c>
       <c r="D61">
+        <v>13.8571428571429</v>
+      </c>
+      <c r="E61">
         <v>3.1428571428571401</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>0.57142857142857095</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
       <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
         <v>1.5714285714285701</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>2.4285714285714302</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>2</v>
       </c>
     </row>
